--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>439.1668519597225</v>
+        <v>821.0461950868538</v>
       </c>
       <c r="R2">
-        <v>439.1668519597225</v>
+        <v>7389.415755781685</v>
       </c>
       <c r="S2">
-        <v>0.002032168433269431</v>
+        <v>0.002836967427855944</v>
       </c>
       <c r="T2">
-        <v>0.002032168433269431</v>
+        <v>0.002927556271825548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>789.8299686087363</v>
+        <v>1265.118891903559</v>
       </c>
       <c r="R3">
-        <v>789.8299686087363</v>
+        <v>11386.07002713203</v>
       </c>
       <c r="S3">
-        <v>0.003654801182499234</v>
+        <v>0.004371375338163438</v>
       </c>
       <c r="T3">
-        <v>0.003654801182499234</v>
+        <v>0.004510960246524809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>348.0589429407681</v>
+        <v>548.6877922180521</v>
       </c>
       <c r="R4">
-        <v>348.0589429407681</v>
+        <v>4938.19012996247</v>
       </c>
       <c r="S4">
-        <v>0.001610582387092879</v>
+        <v>0.001895885278927745</v>
       </c>
       <c r="T4">
-        <v>0.001610582387092879</v>
+        <v>0.001956423885762176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>573.0722434127637</v>
+        <v>927.3676623923025</v>
       </c>
       <c r="R5">
-        <v>573.0722434127637</v>
+        <v>8346.308961530724</v>
       </c>
       <c r="S5">
-        <v>0.002651792406119763</v>
+        <v>0.003204340836846044</v>
       </c>
       <c r="T5">
-        <v>0.002651792406119763</v>
+        <v>0.003306660493125587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>173.7328282531832</v>
+        <v>318.3233288967555</v>
       </c>
       <c r="R6">
-        <v>173.7328282531832</v>
+        <v>1909.939973380533</v>
       </c>
       <c r="S6">
-        <v>0.0008039185285120705</v>
+        <v>0.001099905122282723</v>
       </c>
       <c r="T6">
-        <v>0.0008039185285120705</v>
+        <v>0.0007566845516177092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>34819.97168686047</v>
+        <v>48431.61437517132</v>
       </c>
       <c r="R7">
-        <v>34819.97168686047</v>
+        <v>435884.529376542</v>
       </c>
       <c r="S7">
-        <v>0.1611233794026487</v>
+        <v>0.1673461411587275</v>
       </c>
       <c r="T7">
-        <v>0.1611233794026487</v>
+        <v>0.1726897673567203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>62622.7981954166</v>
+        <v>74626.43475856508</v>
       </c>
       <c r="R8">
-        <v>62622.7981954166</v>
+        <v>671637.9128270858</v>
       </c>
       <c r="S8">
-        <v>0.2897761366274498</v>
+        <v>0.2578573117249144</v>
       </c>
       <c r="T8">
-        <v>0.2897761366274498</v>
+        <v>0.266091102338409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>27596.35087319305</v>
+        <v>32365.8226834091</v>
       </c>
       <c r="R9">
-        <v>27596.35087319305</v>
+        <v>291292.404150682</v>
       </c>
       <c r="S9">
-        <v>0.1276973270356788</v>
+        <v>0.1118338837425335</v>
       </c>
       <c r="T9">
-        <v>0.1276973270356788</v>
+        <v>0.1154049160164302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>45436.85207823502</v>
+        <v>54703.27160366035</v>
       </c>
       <c r="R10">
-        <v>45436.85207823502</v>
+        <v>492329.4444329432</v>
       </c>
       <c r="S10">
-        <v>0.2102511518993017</v>
+        <v>0.1890166481075094</v>
       </c>
       <c r="T10">
-        <v>0.2102511518993017</v>
+        <v>0.1950522477675342</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>13774.65565504211</v>
+        <v>18777.15627208725</v>
       </c>
       <c r="R11">
-        <v>13774.65565504211</v>
+        <v>112662.9376325235</v>
       </c>
       <c r="S11">
-        <v>0.06373982980823908</v>
+        <v>0.06488085694866089</v>
       </c>
       <c r="T11">
-        <v>0.06373982980823908</v>
+        <v>0.04463507002029476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>1425.559489398489</v>
+        <v>1996.00068979718</v>
       </c>
       <c r="R12">
-        <v>1425.559489398489</v>
+        <v>17964.00620817462</v>
       </c>
       <c r="S12">
-        <v>0.006596529271678707</v>
+        <v>0.006896797009495407</v>
       </c>
       <c r="T12">
-        <v>0.006596529271678707</v>
+        <v>0.007117022614501873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>2563.831039927302</v>
+        <v>3075.561638340974</v>
       </c>
       <c r="R13">
-        <v>2563.831039927302</v>
+        <v>27680.05474506876</v>
       </c>
       <c r="S13">
-        <v>0.01186368343677825</v>
+        <v>0.01062701251470218</v>
       </c>
       <c r="T13">
-        <v>0.01186368343677825</v>
+        <v>0.01096634978347194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>1129.818261021043</v>
+        <v>1333.885009520897</v>
       </c>
       <c r="R14">
-        <v>1129.818261021043</v>
+        <v>12004.96508568807</v>
       </c>
       <c r="S14">
-        <v>0.005228038034138555</v>
+        <v>0.004608983449604551</v>
       </c>
       <c r="T14">
-        <v>0.005228038034138555</v>
+        <v>0.004756155559680647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>1860.223673673056</v>
+        <v>2254.473018579453</v>
       </c>
       <c r="R15">
-        <v>1860.223673673056</v>
+        <v>20290.25716721508</v>
       </c>
       <c r="S15">
-        <v>0.008607862391229801</v>
+        <v>0.007789898496531483</v>
       </c>
       <c r="T15">
-        <v>0.008607862391229801</v>
+        <v>0.008038642240471704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>563.9462104919467</v>
+        <v>773.8585086424351</v>
       </c>
       <c r="R16">
-        <v>563.9462104919467</v>
+        <v>4643.151051854611</v>
       </c>
       <c r="S16">
-        <v>0.0026095632717033</v>
+        <v>0.002673919440739294</v>
       </c>
       <c r="T16">
-        <v>0.0026095632717033</v>
+        <v>0.001839534603565207</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>3623.606106693199</v>
+        <v>9304.813537879663</v>
       </c>
       <c r="R17">
-        <v>3623.606106693199</v>
+        <v>83743.32184091696</v>
       </c>
       <c r="S17">
-        <v>0.0167676087386022</v>
+        <v>0.0321509959941355</v>
       </c>
       <c r="T17">
-        <v>0.0167676087386022</v>
+        <v>0.03317762799948822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>6516.959749417522</v>
+        <v>14337.43370696248</v>
       </c>
       <c r="R18">
-        <v>6516.959749417522</v>
+        <v>129036.9033626623</v>
       </c>
       <c r="S18">
-        <v>0.03015610086361519</v>
+        <v>0.04954024836738169</v>
       </c>
       <c r="T18">
-        <v>0.03015610086361519</v>
+        <v>0.05112214662447935</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>2871.866365827216</v>
+        <v>6218.209922475507</v>
       </c>
       <c r="R19">
-        <v>2871.866365827216</v>
+        <v>55963.88930227955</v>
       </c>
       <c r="S19">
-        <v>0.01328906347817326</v>
+        <v>0.02148583004853645</v>
       </c>
       <c r="T19">
-        <v>0.01328906347817326</v>
+        <v>0.02217190648590157</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>4728.471813253595</v>
+        <v>10509.74139001631</v>
       </c>
       <c r="R20">
-        <v>4728.471813253595</v>
+        <v>94587.67251014677</v>
       </c>
       <c r="S20">
-        <v>0.02188018315503354</v>
+        <v>0.03631439275534512</v>
       </c>
       <c r="T20">
-        <v>0.02188018315503354</v>
+        <v>0.03747396858510749</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N21">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O21">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P21">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q21">
-        <v>1433.485552432023</v>
+        <v>3607.518356294343</v>
       </c>
       <c r="R21">
-        <v>1433.485552432023</v>
+        <v>21645.11013776605</v>
       </c>
       <c r="S21">
-        <v>0.006633205753578413</v>
+        <v>0.01246508678006458</v>
       </c>
       <c r="T21">
-        <v>0.006633205753578413</v>
+        <v>0.008575411105890399</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N22">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O22">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P22">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q22">
-        <v>532.0300513266289</v>
+        <v>679.906035504564</v>
       </c>
       <c r="R22">
-        <v>532.0300513266289</v>
+        <v>4079.436213027384</v>
       </c>
       <c r="S22">
-        <v>0.002461876781073289</v>
+        <v>0.002349284715368629</v>
       </c>
       <c r="T22">
-        <v>0.002461876781073289</v>
+        <v>0.001616200720823729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N23">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P23">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q23">
-        <v>956.8419767181222</v>
+        <v>1047.641381670472</v>
       </c>
       <c r="R23">
-        <v>956.8419767181222</v>
+        <v>6285.848290022833</v>
       </c>
       <c r="S23">
-        <v>0.0044276202815326</v>
+        <v>0.003619923572703144</v>
       </c>
       <c r="T23">
-        <v>0.0044276202815326</v>
+        <v>0.00249034229408487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N24">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O24">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P24">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q24">
-        <v>421.6570910375822</v>
+        <v>454.366811233154</v>
       </c>
       <c r="R24">
-        <v>421.6570910375822</v>
+        <v>2726.200867398924</v>
       </c>
       <c r="S24">
-        <v>0.001951145051697519</v>
+        <v>0.001569977245471394</v>
       </c>
       <c r="T24">
-        <v>0.001951145051697519</v>
+        <v>0.00108007272988603</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N25">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O25">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P25">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q25">
-        <v>694.2501550748229</v>
+        <v>767.950542326776</v>
       </c>
       <c r="R25">
-        <v>694.2501550748229</v>
+        <v>4607.703253960656</v>
       </c>
       <c r="S25">
-        <v>0.00321252217383851</v>
+        <v>0.002653505597885273</v>
       </c>
       <c r="T25">
-        <v>0.00321252217383851</v>
+        <v>0.001825490810865405</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N26">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O26">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P26">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q26">
-        <v>210.4691761689214</v>
+        <v>263.6026497095131</v>
       </c>
       <c r="R26">
-        <v>210.4691761689214</v>
+        <v>1054.410598838052</v>
       </c>
       <c r="S26">
-        <v>0.0009739096065154108</v>
+        <v>0.0009108283256136395</v>
       </c>
       <c r="T26">
-        <v>0.0009739096065154108</v>
+        <v>0.0004177388935373459</v>
       </c>
     </row>
   </sheetData>
